--- a/public/ExamplesImportacion/Ddirecciones.xlsx
+++ b/public/ExamplesImportacion/Ddirecciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\illapaDesig\illapaApi\public\ExamplesImportacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programas\flutter\proyects\ILLAPA\ILLAPA-APIS\public\ExamplesImportacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCBC030-3F1C-47FD-880C-62AFEA5FFB39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85F181-D7E8-47E1-A228-B96172988064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{6F0ACF3F-C7BC-4D8B-8E2A-7CF37D5B1CAC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>LATITUD</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>AVENIDA JIMÉNEZ # 4 - 69</t>
+  </si>
+  <si>
+    <t>CRA 3 # 12 B 55</t>
+  </si>
+  <si>
+    <t>CALLE 12 # 3 - 92</t>
+  </si>
+  <si>
+    <t>CALLE 12 D # 4 -15</t>
+  </si>
+  <si>
+    <t>CALLE 12 # 3</t>
+  </si>
+  <si>
+    <t>CARRERA 3 # 12 B 79</t>
+  </si>
+  <si>
+    <t>CRA 4 # 12 -15</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>CLL 12B # 1-44</t>
+  </si>
+  <si>
+    <t>CALLE 10 # 2 - 99</t>
+  </si>
+  <si>
+    <t>CRA 3 # 12B - 35</t>
+  </si>
+  <si>
+    <t>CRA 6 # 10 - 38</t>
   </si>
 </sst>
 </file>
@@ -456,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB87425-8E0D-4C8D-BEFF-E393E56A1A0D}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,6 +591,246 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>20230002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>40101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>20230006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>40101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>20230013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>40101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>20230019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>40101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>20230014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>40101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>20230010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>40101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>20230008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>40101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>20230009</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>40101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>20408000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>40101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>20408000008</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>40101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>20408000017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>40101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>20408000022</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>40101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
